--- a/AQIData/AQI_daily_city_level_bengaluru_2025_bengaluru_2025.xlsx
+++ b/AQIData/AQI_daily_city_level_bengaluru_2025_bengaluru_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQI" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prominent Parameters" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AQI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Prominent Parameters" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,13 +53,22 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -67,6 +76,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,67 +445,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>January</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>February</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>March</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>April</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>July</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>August</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>September</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>October</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>November</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>December</t>
         </is>
@@ -447,9 +524,15 @@
       <c r="D2" t="n">
         <v>67</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>81</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -470,9 +553,15 @@
       <c r="D3" t="n">
         <v>74</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>74</v>
+      </c>
+      <c r="G3" t="n">
+        <v>64</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -493,9 +582,15 @@
       <c r="D4" t="n">
         <v>74</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -516,9 +611,15 @@
       <c r="D5" t="n">
         <v>100</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -539,9 +640,15 @@
       <c r="D6" t="n">
         <v>110</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" t="n">
+        <v>88</v>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -562,9 +669,15 @@
       <c r="D7" t="n">
         <v>121</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>62</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -585,9 +698,15 @@
       <c r="D8" t="n">
         <v>130</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>91</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -608,9 +727,15 @@
       <c r="D9" t="n">
         <v>119</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>75</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -631,9 +756,15 @@
       <c r="D10" t="n">
         <v>115</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -654,9 +785,15 @@
       <c r="D11" t="n">
         <v>84</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>69</v>
+      </c>
+      <c r="G11" t="n">
+        <v>67</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -677,9 +814,15 @@
       <c r="D12" t="n">
         <v>75</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>68</v>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -700,9 +843,15 @@
       <c r="D13" t="n">
         <v>60</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>62</v>
+      </c>
+      <c r="G13" t="n">
+        <v>54</v>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -723,9 +872,15 @@
       <c r="D14" t="n">
         <v>67</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>62</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -746,9 +901,15 @@
       <c r="D15" t="n">
         <v>81</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>59</v>
+      </c>
+      <c r="G15" t="n">
+        <v>54</v>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -769,9 +930,15 @@
       <c r="D16" t="n">
         <v>97</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>65</v>
+      </c>
+      <c r="G16" t="n">
+        <v>48</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -792,9 +959,15 @@
       <c r="D17" t="n">
         <v>91</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>62</v>
+      </c>
+      <c r="F17" t="n">
+        <v>59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>51</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -815,9 +988,15 @@
       <c r="D18" t="n">
         <v>105</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>62</v>
+      </c>
+      <c r="F18" t="n">
+        <v>51</v>
+      </c>
+      <c r="G18" t="n">
+        <v>57</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -838,9 +1017,15 @@
       <c r="D19" t="n">
         <v>90</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>47</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -861,9 +1046,15 @@
       <c r="D20" t="n">
         <v>81</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>59</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -884,9 +1075,15 @@
       <c r="D21" t="n">
         <v>75</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>62</v>
+      </c>
+      <c r="F21" t="n">
+        <v>52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>70</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -907,9 +1104,15 @@
       <c r="D22" t="n">
         <v>97</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>62</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45</v>
+      </c>
+      <c r="G22" t="n">
+        <v>67</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -930,9 +1133,15 @@
       <c r="D23" t="n">
         <v>81</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>62</v>
+      </c>
+      <c r="F23" t="n">
+        <v>72</v>
+      </c>
+      <c r="G23" t="n">
+        <v>52</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -953,9 +1162,15 @@
       <c r="D24" t="n">
         <v>79</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>62</v>
+      </c>
+      <c r="F24" t="n">
+        <v>82</v>
+      </c>
+      <c r="G24" t="n">
+        <v>52</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -976,9 +1191,15 @@
       <c r="D25" t="n">
         <v>84</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>51</v>
+      </c>
+      <c r="G25" t="n">
+        <v>62</v>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -999,9 +1220,15 @@
       <c r="D26" t="n">
         <v>80</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43</v>
+      </c>
+      <c r="G26" t="n">
+        <v>59</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1022,9 +1249,15 @@
       <c r="D27" t="n">
         <v>94</v>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>62</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>61</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1045,9 +1278,15 @@
       <c r="D28" t="n">
         <v>91</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53</v>
+      </c>
+      <c r="G28" t="n">
+        <v>59</v>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1068,8 +1307,12 @@
       <c r="D29" t="n">
         <v>94</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>62</v>
+      </c>
+      <c r="F29" t="n">
+        <v>55</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1089,9 +1332,15 @@
       <c r="D30" t="n">
         <v>109</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>62</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51</v>
+      </c>
+      <c r="G30" t="n">
+        <v>62</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1110,9 +1359,15 @@
       <c r="D31" t="n">
         <v>115</v>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>57</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1144,7 +1399,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1367,67 +1622,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>January</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>February</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>March</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>April</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>July</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>August</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>September</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>October</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>November</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>December</t>
         </is>
@@ -1452,9 +1707,21 @@
           <t>OZONE,PM10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>O3, PM10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1481,9 +1748,21 @@
           <t>OZONE,PM10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PM10, O3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1510,9 +1789,21 @@
           <t>PM10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PM10, CO, PM2.5</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1539,9 +1830,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1568,9 +1871,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1597,9 +1912,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1626,9 +1953,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1655,9 +1994,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1684,9 +2035,21 @@
           <t>PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PM10, O3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1713,9 +2076,21 @@
           <t>PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1742,9 +2117,21 @@
           <t>PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1771,9 +2158,21 @@
           <t>NO2,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1800,9 +2199,21 @@
           <t>NO2,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PM10, SO2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1829,9 +2240,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1858,9 +2281,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1887,9 +2322,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1916,9 +2363,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1945,9 +2404,21 @@
           <t>OZONE,PM10</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1974,9 +2445,21 @@
           <t>OZONE,PM10</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PM10, CO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2003,9 +2486,21 @@
           <t>OZONE,PM10</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2032,9 +2527,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CO, PM10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2061,9 +2568,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2090,9 +2609,21 @@
           <t>CO,NO2,OZONE</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2119,9 +2650,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2148,9 +2691,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PM2.5, PM10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2177,9 +2732,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2206,9 +2773,21 @@
           <t>CO,OZONE,PM10</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PM10, PM2.5</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2235,8 +2814,16 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2260,9 +2847,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2285,9 +2884,21 @@
           <t>OZONE,PM10,PM2.5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PM10</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2323,7 +2934,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
